--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H2">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I2">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J2">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N2">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O2">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P2">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q2">
-        <v>183.1036902400661</v>
+        <v>111.61987075098</v>
       </c>
       <c r="R2">
-        <v>1647.933212160595</v>
+        <v>1004.57883675882</v>
       </c>
       <c r="S2">
-        <v>0.01214517892900578</v>
+        <v>0.006213193180763821</v>
       </c>
       <c r="T2">
-        <v>0.01214517892900578</v>
+        <v>0.006213193180763822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H3">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I3">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J3">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.193852</v>
       </c>
       <c r="O3">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P3">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q3">
-        <v>65.35748000717111</v>
+        <v>54.41480576165468</v>
       </c>
       <c r="R3">
-        <v>588.21732006454</v>
+        <v>489.733251854892</v>
       </c>
       <c r="S3">
-        <v>0.004335129936460009</v>
+        <v>0.003028938286850079</v>
       </c>
       <c r="T3">
-        <v>0.004335129936460009</v>
+        <v>0.00302893828685008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H4">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I4">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J4">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N4">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O4">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P4">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q4">
-        <v>673.9895700954189</v>
+        <v>644.2859067005361</v>
       </c>
       <c r="R4">
-        <v>6065.906130858771</v>
+        <v>5798.573160304824</v>
       </c>
       <c r="S4">
-        <v>0.04470540115472436</v>
+        <v>0.03586344236954655</v>
       </c>
       <c r="T4">
-        <v>0.04470540115472436</v>
+        <v>0.03586344236954655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H5">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I5">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J5">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N5">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O5">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P5">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q5">
-        <v>16.095426750575</v>
+        <v>10.780453358323</v>
       </c>
       <c r="R5">
-        <v>144.858840755175</v>
+        <v>97.02408022490701</v>
       </c>
       <c r="S5">
-        <v>0.001067601846626599</v>
+        <v>0.0006000816775796778</v>
       </c>
       <c r="T5">
-        <v>0.001067601846626599</v>
+        <v>0.0006000816775796779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H6">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I6">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J6">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N6">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O6">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P6">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q6">
-        <v>662.3833005622512</v>
+        <v>860.2894842674434</v>
       </c>
       <c r="R6">
-        <v>5961.44970506026</v>
+        <v>7742.60535840699</v>
       </c>
       <c r="S6">
-        <v>0.04393556292812293</v>
+        <v>0.04788703589397744</v>
       </c>
       <c r="T6">
-        <v>0.04393556292812293</v>
+        <v>0.04788703589397746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>305.798455</v>
       </c>
       <c r="I7">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J7">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N7">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O7">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P7">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q7">
-        <v>970.3600311596672</v>
+        <v>710.4860143779</v>
       </c>
       <c r="R7">
-        <v>8733.240280437005</v>
+        <v>6394.374129401101</v>
       </c>
       <c r="S7">
-        <v>0.06436351003378621</v>
+        <v>0.03954839608629519</v>
       </c>
       <c r="T7">
-        <v>0.06436351003378622</v>
+        <v>0.03954839608629521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>305.798455</v>
       </c>
       <c r="I8">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J8">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>10.193852</v>
       </c>
       <c r="O8">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P8">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q8">
         <v>346.3626880109622</v>
@@ -948,10 +948,10 @@
         <v>3117.26419209866</v>
       </c>
       <c r="S8">
-        <v>0.02297406903546971</v>
+        <v>0.01927988517404588</v>
       </c>
       <c r="T8">
-        <v>0.02297406903546971</v>
+        <v>0.01927988517404589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>305.798455</v>
       </c>
       <c r="I9">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J9">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N9">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O9">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P9">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q9">
-        <v>3571.815179593647</v>
+        <v>4101.027199652946</v>
       </c>
       <c r="R9">
-        <v>32146.33661634283</v>
+        <v>36909.24479687652</v>
       </c>
       <c r="S9">
-        <v>0.2369167677649099</v>
+        <v>0.2282790157306011</v>
       </c>
       <c r="T9">
-        <v>0.23691676776491</v>
+        <v>0.2282790157306012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>305.798455</v>
       </c>
       <c r="I10">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J10">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N10">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O10">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P10">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q10">
-        <v>85.297892045425</v>
+        <v>68.62005204099832</v>
       </c>
       <c r="R10">
-        <v>767.681028408825</v>
+        <v>617.580468368985</v>
       </c>
       <c r="S10">
-        <v>0.005657767791574635</v>
+        <v>0.003819657167996191</v>
       </c>
       <c r="T10">
-        <v>0.005657767791574637</v>
+        <v>0.003819657167996193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>305.798455</v>
       </c>
       <c r="I11">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J11">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N11">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O11">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P11">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q11">
-        <v>3510.307625862282</v>
+        <v>5475.93938943016</v>
       </c>
       <c r="R11">
-        <v>31592.76863276054</v>
+        <v>49283.45450487144</v>
       </c>
       <c r="S11">
-        <v>0.232837001570283</v>
+        <v>0.3048119393417659</v>
       </c>
       <c r="T11">
-        <v>0.232837001570283</v>
+        <v>0.304811939341766</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H12">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I12">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J12">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N12">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O12">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P12">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q12">
-        <v>323.5792489402507</v>
+        <v>134.74626786372</v>
       </c>
       <c r="R12">
-        <v>2912.213240462257</v>
+        <v>1212.71641077348</v>
       </c>
       <c r="S12">
-        <v>0.02146285457677092</v>
+        <v>0.007500497778679695</v>
       </c>
       <c r="T12">
-        <v>0.02146285457677092</v>
+        <v>0.007500497778679697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H13">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I13">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J13">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>10.193852</v>
       </c>
       <c r="O13">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P13">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q13">
-        <v>115.4991702549547</v>
+        <v>65.68894896205423</v>
       </c>
       <c r="R13">
-        <v>1039.492532294592</v>
+        <v>591.200540658488</v>
       </c>
       <c r="S13">
-        <v>0.007661003921106008</v>
+        <v>0.003656500648107</v>
       </c>
       <c r="T13">
-        <v>0.007661003921106008</v>
+        <v>0.003656500648107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H14">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I14">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J14">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N14">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O14">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P14">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q14">
-        <v>1191.068506588277</v>
+        <v>777.7747884941706</v>
       </c>
       <c r="R14">
-        <v>10719.6165592945</v>
+        <v>6999.973096447535</v>
       </c>
       <c r="S14">
-        <v>0.07900299611795034</v>
+        <v>0.04329394918242705</v>
       </c>
       <c r="T14">
-        <v>0.07900299611795034</v>
+        <v>0.04329394918242705</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H15">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I15">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J15">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N15">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O15">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P15">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q15">
-        <v>28.44369817176</v>
+        <v>13.01404352235533</v>
       </c>
       <c r="R15">
-        <v>255.99328354584</v>
+        <v>117.126391701198</v>
       </c>
       <c r="S15">
-        <v>0.00188665669842993</v>
+        <v>0.0007244119342124556</v>
       </c>
       <c r="T15">
-        <v>0.00188665669842993</v>
+        <v>0.0007244119342124557</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H16">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I16">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J16">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N16">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O16">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P16">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q16">
-        <v>1170.558008008939</v>
+        <v>1038.531907513651</v>
       </c>
       <c r="R16">
-        <v>10535.02207208045</v>
+        <v>9346.787167622859</v>
       </c>
       <c r="S16">
-        <v>0.07764254469917999</v>
+        <v>0.05780869770190811</v>
       </c>
       <c r="T16">
-        <v>0.07764254469917999</v>
+        <v>0.05780869770190812</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H17">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I17">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J17">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N17">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O17">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P17">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q17">
-        <v>10.50474937171533</v>
+        <v>4.79251492092</v>
       </c>
       <c r="R17">
-        <v>94.54274434543801</v>
+        <v>43.13263428828</v>
       </c>
       <c r="S17">
-        <v>0.0006967749287661634</v>
+        <v>0.0002667698934341183</v>
       </c>
       <c r="T17">
-        <v>0.0006967749287661636</v>
+        <v>0.0002667698934341184</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H18">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I18">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J18">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>10.193852</v>
       </c>
       <c r="O18">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P18">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q18">
-        <v>3.749590989357333</v>
+        <v>2.336356123485333</v>
       </c>
       <c r="R18">
-        <v>33.746318904216</v>
+        <v>21.027205111368</v>
       </c>
       <c r="S18">
-        <v>0.0002487085509670838</v>
+        <v>0.0001300506069090517</v>
       </c>
       <c r="T18">
-        <v>0.0002487085509670839</v>
+        <v>0.0001300506069090518</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H19">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I19">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J19">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N19">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O19">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P19">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q19">
-        <v>38.66711535807866</v>
+        <v>27.663083646544</v>
       </c>
       <c r="R19">
-        <v>348.004038222708</v>
+        <v>248.967752818896</v>
       </c>
       <c r="S19">
-        <v>0.002564770999845268</v>
+        <v>0.001539834095087386</v>
       </c>
       <c r="T19">
-        <v>0.002564770999845268</v>
+        <v>0.001539834095087386</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H20">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I20">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J20">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N20">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O20">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P20">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q20">
-        <v>0.92340260223</v>
+        <v>0.4628699462419999</v>
       </c>
       <c r="R20">
-        <v>8.31062342007</v>
+        <v>4.165829516177999</v>
       </c>
       <c r="S20">
-        <v>6.12488465573202E-05</v>
+        <v>2.576512922136724E-05</v>
       </c>
       <c r="T20">
-        <v>6.124884655732021E-05</v>
+        <v>2.576512922136725E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H21">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I21">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J21">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N21">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O21">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P21">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q21">
-        <v>38.00125792818933</v>
+        <v>36.93742128460666</v>
       </c>
       <c r="R21">
-        <v>342.011321353704</v>
+        <v>332.4367915614599</v>
       </c>
       <c r="S21">
-        <v>0.002520604999604579</v>
+        <v>0.002056079553725011</v>
       </c>
       <c r="T21">
-        <v>0.002520604999604579</v>
+        <v>0.002056079553725012</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H22">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I22">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J22">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.519603666666667</v>
+        <v>6.970140000000001</v>
       </c>
       <c r="N22">
-        <v>28.558811</v>
+        <v>20.91042</v>
       </c>
       <c r="O22">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649673</v>
       </c>
       <c r="P22">
-        <v>0.1143733649354437</v>
+        <v>0.06638545261649674</v>
       </c>
       <c r="Q22">
-        <v>236.7731245731274</v>
+        <v>230.9684418381601</v>
       </c>
       <c r="R22">
-        <v>2130.958121158146</v>
+        <v>2078.71597654344</v>
       </c>
       <c r="S22">
-        <v>0.01570504646711465</v>
+        <v>0.01285659567732389</v>
       </c>
       <c r="T22">
-        <v>0.01570504646711466</v>
+        <v>0.01285659567732389</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H23">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I23">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J23">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>10.193852</v>
       </c>
       <c r="O23">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883257</v>
       </c>
       <c r="P23">
-        <v>0.04082470922525111</v>
+        <v>0.03236297878883258</v>
       </c>
       <c r="Q23">
-        <v>84.51437944934133</v>
+        <v>112.5973611610293</v>
       </c>
       <c r="R23">
-        <v>760.6294150440721</v>
+        <v>1013.376250449264</v>
       </c>
       <c r="S23">
-        <v>0.005605797781248304</v>
+        <v>0.006267604072920558</v>
       </c>
       <c r="T23">
-        <v>0.005605797781248304</v>
+        <v>0.006267604072920559</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H24">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I24">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J24">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.04087533333333</v>
+        <v>40.232648</v>
       </c>
       <c r="N24">
-        <v>105.122626</v>
+        <v>120.697944</v>
       </c>
       <c r="O24">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="P24">
-        <v>0.4209989157626403</v>
+        <v>0.3831863560043545</v>
       </c>
       <c r="Q24">
-        <v>871.5423279124708</v>
+        <v>1333.182980482912</v>
       </c>
       <c r="R24">
-        <v>7843.880951212237</v>
+        <v>11998.64682434621</v>
       </c>
       <c r="S24">
-        <v>0.05780897972521037</v>
+        <v>0.07421011462669239</v>
       </c>
       <c r="T24">
-        <v>0.05780897972521037</v>
+        <v>0.07421011462669239</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H25">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I25">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J25">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.836805</v>
+        <v>0.6731889999999999</v>
       </c>
       <c r="N25">
-        <v>2.510415</v>
+        <v>2.019567</v>
       </c>
       <c r="O25">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790867</v>
       </c>
       <c r="P25">
-        <v>0.01005380129216206</v>
+        <v>0.006411629674790868</v>
       </c>
       <c r="Q25">
-        <v>20.81314952241</v>
+        <v>22.307358875516</v>
       </c>
       <c r="R25">
-        <v>187.31834570169</v>
+        <v>200.766229879644</v>
       </c>
       <c r="S25">
-        <v>0.001380526108973571</v>
+        <v>0.001241713765781174</v>
       </c>
       <c r="T25">
-        <v>0.001380526108973571</v>
+        <v>0.001241713765781174</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H26">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I26">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J26">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.43746266666667</v>
+        <v>53.72106333333333</v>
       </c>
       <c r="N26">
-        <v>103.312388</v>
+        <v>161.16319</v>
       </c>
       <c r="O26">
-        <v>0.4137492087845029</v>
+        <v>0.5116535829155252</v>
       </c>
       <c r="P26">
-        <v>0.4137492087845028</v>
+        <v>0.5116535829155253</v>
       </c>
       <c r="Q26">
-        <v>856.5341503142855</v>
+        <v>1780.146495190787</v>
       </c>
       <c r="R26">
-        <v>7708.807352828569</v>
+        <v>16021.31845671708</v>
       </c>
       <c r="S26">
-        <v>0.05681349458731243</v>
+        <v>0.09908983042414875</v>
       </c>
       <c r="T26">
-        <v>0.05681349458731242</v>
+        <v>0.09908983042414876</v>
       </c>
     </row>
   </sheetData>
